--- a/我的创作/健康计划-执行-结果.xlsx
+++ b/我的创作/健康计划-执行-结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="健康资产负债表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>类目</t>
   </si>
@@ -91,6 +91,29 @@
   </si>
   <si>
     <t>金钱</t>
+  </si>
+  <si>
+    <t>厨艺</t>
+  </si>
+  <si>
+    <t>身体核心力量</t>
+  </si>
+  <si>
+    <t>社交技能</t>
+  </si>
+  <si>
+    <t>服饰品种特点的了解和
+着装搭配的了解</t>
+  </si>
+  <si>
+    <t>秋季</t>
+  </si>
+  <si>
+    <t>面部清洁产品的了解
+和面部的了解</t>
+  </si>
+  <si>
+    <t>支出时间</t>
   </si>
 </sst>
 </file>
@@ -450,82 +473,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -692,7 +645,7 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,7 +678,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,19 +696,19 @@
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,7 +744,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,13 +762,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,17 +777,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,29 +803,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1190,202 +1128,202 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.6071428571429" style="9" customWidth="1"/>
+    <col min="1" max="1" width="11.6071428571429" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="11.9017857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1405,208 +1343,216 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="12.3482142857143" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="1">
         <v>1.5</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="1">
         <v>0.5</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E17"/>
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1617,14 +1563,151 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/我的创作/健康计划-执行-结果.xlsx
+++ b/我的创作/健康计划-执行-结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="健康资产负债表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>类目</t>
   </si>
@@ -27,6 +27,45 @@
     <t>负债</t>
   </si>
   <si>
+    <t>锻炼</t>
+  </si>
+  <si>
+    <t>慢跑</t>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>跳绳</t>
+  </si>
+  <si>
+    <t>唱歌</t>
+  </si>
+  <si>
+    <t>护理</t>
+  </si>
+  <si>
+    <t>面部清洁</t>
+  </si>
+  <si>
+    <t>发型</t>
+  </si>
+  <si>
+    <t>指甲</t>
+  </si>
+  <si>
+    <t>服饰</t>
+  </si>
+  <si>
+    <t>冬季</t>
+  </si>
+  <si>
+    <t>春季</t>
+  </si>
+  <si>
+    <t>夏季</t>
+  </si>
+  <si>
     <t>饮食</t>
   </si>
   <si>
@@ -42,64 +81,28 @@
     <t>冷冻</t>
   </si>
   <si>
-    <t>锻炼</t>
-  </si>
-  <si>
-    <t>慢跑</t>
-  </si>
-  <si>
-    <t>深度</t>
-  </si>
-  <si>
-    <t>跳绳</t>
-  </si>
-  <si>
-    <t>唱歌</t>
+    <t>支出</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>金钱</t>
+  </si>
+  <si>
+    <t>厨艺</t>
+  </si>
+  <si>
+    <t>身体核心力量</t>
+  </si>
+  <si>
+    <t>社交技能</t>
   </si>
   <si>
     <t>穿着</t>
-  </si>
-  <si>
-    <t>冬季</t>
-  </si>
-  <si>
-    <t>春季</t>
-  </si>
-  <si>
-    <t>夏季</t>
-  </si>
-  <si>
-    <t>护理</t>
-  </si>
-  <si>
-    <t>面部清洁</t>
-  </si>
-  <si>
-    <t>发型</t>
-  </si>
-  <si>
-    <t>指甲</t>
-  </si>
-  <si>
-    <t>支出</t>
-  </si>
-  <si>
-    <t>收入</t>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>金钱</t>
-  </si>
-  <si>
-    <t>厨艺</t>
-  </si>
-  <si>
-    <t>身体核心力量</t>
-  </si>
-  <si>
-    <t>社交技能</t>
   </si>
   <si>
     <t>服饰品种特点的了解和
@@ -122,8 +125,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -165,10 +168,102 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,104 +275,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,115 +303,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,55 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,10 +555,66 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -575,197 +634,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1127,15 +1130,14 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.6071428571429" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="2" max="3" width="14.875" customWidth="1"/>
     <col min="4" max="4" width="11.9017857142857" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1152,7 +1154,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1166,7 +1168,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1178,7 +1180,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1192,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1228,7 +1230,7 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1240,9 +1242,11 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1252,9 +1256,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1266,7 +1268,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1278,9 +1280,11 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="6"/>
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1290,9 +1294,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1306,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1316,7 +1318,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="6"/>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1331,9 +1333,9 @@
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1380,10 +1382,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1396,7 +1398,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1405,7 +1407,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1414,7 +1416,7 @@
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1422,10 +1424,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>1.5</v>
@@ -1438,7 +1440,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>0.5</v>
@@ -1449,7 +1451,7 @@
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1458,7 +1460,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1470,23 +1472,23 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1495,7 +1497,7 @@
     <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1504,7 +1506,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1512,21 +1514,21 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1535,7 +1537,7 @@
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1565,8 +1567,8 @@
   <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -1577,7 +1579,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1587,10 +1589,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1599,30 +1601,30 @@
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>1.5</v>
@@ -1631,7 +1633,7 @@
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <v>0.5</v>
@@ -1640,14 +1642,14 @@
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -1655,47 +1657,47 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1"/>
     </row>

--- a/我的创作/健康计划-执行-结果.xlsx
+++ b/我的创作/健康计划-执行-结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="13420"/>
+    <workbookView windowWidth="26500" windowHeight="13420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="健康资产负债表" sheetId="1" r:id="rId1"/>
@@ -1130,8 +1130,8 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1348,7 +1348,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E9"/>
+      <selection activeCell="A1" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1567,8 +1567,8 @@
   <sheetPr/>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="2"/>
